--- a/hw_global/Data/KoppenGeigerLegend.xlsx
+++ b/hw_global/Data/KoppenGeigerLegend.xlsx
@@ -329,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -353,6 +353,14 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="&quot;JetBrains Mono&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF080808"/>
       <name val="&quot;JetBrains Mono&quot;"/>
@@ -408,12 +416,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,10 +509,10 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="17.74"/>
@@ -544,7 +556,7 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
